--- a/data/people/RA/leave.xlsx
+++ b/data/people/RA/leave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ge38kad/Documents/github/CoronaNet/data/people/RA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F626C42B-FE60-514B-88CC-4AA5C09B0C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A55B3D-F662-254D-A1FE-81A6FCDD7782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="460" windowWidth="27840" windowHeight="16580" xr2:uid="{97FC4C6C-E9D9-BA47-9E76-B19B2A5B5CC8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{97FC4C6C-E9D9-BA47-9E76-B19B2A5B5CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Mail</t>
   </si>
@@ -169,6 +169,33 @@
   </si>
   <si>
     <t>IA</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Fabienne Lind</t>
+  </si>
+  <si>
+    <t>fabienne.lind@univie.ac.at</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Beatrice Di Giulio</t>
+  </si>
+  <si>
+    <t>beatrice.digiulio@gmail.com</t>
+  </si>
+  <si>
+    <t>Italy: sub-national</t>
+  </si>
+  <si>
+    <t>Davit Jintcharadzé</t>
+  </si>
+  <si>
+    <t>dj1267@nyu.edu</t>
   </si>
 </sst>
 </file>
@@ -536,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A0071C-A0B3-3D4D-9299-F4D06A194C3B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,6 +867,67 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>121</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/people/RA/leave.xlsx
+++ b/data/people/RA/leave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ge38kad/Documents/github/CoronaNet/data/people/RA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A55B3D-F662-254D-A1FE-81A6FCDD7782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFCE9E-7DD2-D64C-B475-A8E1F4CCCF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{97FC4C6C-E9D9-BA47-9E76-B19B2A5B5CC8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Mail</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>dj1267@nyu.edu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Jane Murutu</t>
+  </si>
+  <si>
+    <t>jane.murutu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -563,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A0071C-A0B3-3D4D-9299-F4D06A194C3B}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,6 +937,28 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/people/RA/leave.xlsx
+++ b/data/people/RA/leave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ge38kad/Documents/github/CoronaNet/data/people/RA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFCE9E-7DD2-D64C-B475-A8E1F4CCCF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488075F3-DF63-E046-B1CC-007F1180F411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{97FC4C6C-E9D9-BA47-9E76-B19B2A5B5CC8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Mail</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>jane.murutu@gmail.com</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Saw Eh Doh Soe</t>
+  </si>
+  <si>
+    <t>ehdohsoe.saw@gmail.com</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A0071C-A0B3-3D4D-9299-F4D06A194C3B}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +949,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -958,6 +970,31 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43865</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/people/RA/leave.xlsx
+++ b/data/people/RA/leave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ge38kad/Documents/github/CoronaNet/data/people/RA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488075F3-DF63-E046-B1CC-007F1180F411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174DF8D7-2B0A-9B43-8F07-B6EB472752F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{97FC4C6C-E9D9-BA47-9E76-B19B2A5B5CC8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13480" windowHeight="16340" xr2:uid="{97FC4C6C-E9D9-BA47-9E76-B19B2A5B5CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +241,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -265,11 +271,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -584,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A0071C-A0B3-3D4D-9299-F4D06A194C3B}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,41 +633,41 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -670,110 +677,105 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43865</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43865</v>
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -802,19 +804,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
         <v>43865</v>
@@ -824,19 +826,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
         <v>43865</v>
@@ -846,19 +848,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -868,19 +870,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -890,80 +892,88 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43865</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43865</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43865</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -971,32 +981,759 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2">
-        <v>43865</v>
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>61</v>
-      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M165" s="1"/>
+    </row>
+    <row r="166" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M166" s="1"/>
+    </row>
+    <row r="167" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M174" s="1"/>
+    </row>
+    <row r="175" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M175" s="1"/>
+    </row>
+    <row r="176" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M177" s="1"/>
+    </row>
+    <row r="178" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M179" s="1"/>
+    </row>
+    <row r="180" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M184" s="1"/>
+    </row>
+    <row r="185" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M185" s="1"/>
+    </row>
+    <row r="186" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M186" s="1"/>
+    </row>
+    <row r="187" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M187" s="1"/>
+    </row>
+    <row r="188" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M188" s="1"/>
+    </row>
+    <row r="189" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M189" s="1"/>
+    </row>
+    <row r="190" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M191" s="1"/>
+    </row>
+    <row r="192" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M192" s="1"/>
+    </row>
+    <row r="193" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M193" s="1"/>
+    </row>
+    <row r="194" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M195" s="1"/>
+    </row>
+    <row r="196" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M196" s="1"/>
+    </row>
+    <row r="197" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M198" s="1"/>
+    </row>
+    <row r="199" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M199" s="1"/>
+    </row>
+    <row r="200" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M200" s="1"/>
+    </row>
+    <row r="201" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M202" s="1"/>
+    </row>
+    <row r="203" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M203" s="1"/>
+    </row>
+    <row r="204" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M204" s="1"/>
+    </row>
+    <row r="205" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M205" s="1"/>
+    </row>
+    <row r="206" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M206" s="1"/>
+    </row>
+    <row r="207" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M207" s="1"/>
+    </row>
+    <row r="208" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M208" s="1"/>
+    </row>
+    <row r="209" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M209" s="1"/>
+    </row>
+    <row r="210" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M210" s="1"/>
+    </row>
+    <row r="211" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M211" s="1"/>
+    </row>
+    <row r="212" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M212" s="1"/>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M213" s="1"/>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M214" s="1"/>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M215" s="1"/>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M216" s="1"/>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M217" s="1"/>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M218" s="1"/>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M219" s="1"/>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M220" s="1"/>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M221" s="1"/>
+    </row>
+    <row r="222" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M222" s="1"/>
+    </row>
+    <row r="223" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M223" s="1"/>
+    </row>
+    <row r="224" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M224" s="1"/>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M225" s="1"/>
+    </row>
+    <row r="226" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M226" s="1"/>
+    </row>
+    <row r="227" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M227" s="1"/>
+    </row>
+    <row r="228" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M228" s="1"/>
+    </row>
+    <row r="229" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M229" s="1"/>
+    </row>
+    <row r="230" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M230" s="1"/>
+    </row>
+    <row r="231" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M231" s="1"/>
+    </row>
+    <row r="232" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M232" s="1"/>
+    </row>
+    <row r="233" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M233" s="1"/>
+    </row>
+    <row r="234" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M234" s="1"/>
+    </row>
+    <row r="235" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M235" s="1"/>
+    </row>
+    <row r="236" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M236" s="1"/>
+    </row>
+    <row r="237" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M237" s="1"/>
+    </row>
+    <row r="238" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M238" s="1"/>
+    </row>
+    <row r="239" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M239" s="1"/>
+    </row>
+    <row r="240" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M240" s="1"/>
+    </row>
+    <row r="241" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M241" s="1"/>
+    </row>
+    <row r="242" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M242" s="1"/>
+    </row>
+    <row r="243" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M243" s="1"/>
+    </row>
+    <row r="244" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M244" s="1"/>
+    </row>
+    <row r="245" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M245" s="1"/>
+    </row>
+    <row r="246" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M246" s="1"/>
+    </row>
+    <row r="247" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M247" s="1"/>
+    </row>
+    <row r="248" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M248" s="1"/>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M249" s="1"/>
+    </row>
+    <row r="250" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M250" s="1"/>
+    </row>
+    <row r="251" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M251" s="1"/>
+    </row>
+    <row r="252" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M252" s="1"/>
+    </row>
+    <row r="253" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M253" s="1"/>
+    </row>
+    <row r="254" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M254" s="1"/>
+    </row>
+    <row r="255" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M255" s="1"/>
+    </row>
+    <row r="256" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M256" s="1"/>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M257" s="1"/>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M258" s="1"/>
+    </row>
+    <row r="259" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M259" s="1"/>
+    </row>
+    <row r="260" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M260" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:I18">
+    <sortCondition ref="D2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>